--- a/experiments/Dye kinetics/8_11_22 dye kinetics/a488_100um_2.xlsx
+++ b/experiments/Dye kinetics/8_11_22 dye kinetics/a488_100um_2.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lencer 606 Tecan\Desktop\michael a\8_11_22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\AutoCIF\experiments\Dye kinetics\8_11_22 dye kinetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E08C64-21C1-4E88-A828-599F18755D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648451B-36A8-4031-ACCC-C6C8EC0941AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1110" windowWidth="22890" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6979" uniqueCount="89">
   <si>
     <t>Method name: a488_bleach (Modified)</t>
   </si>
@@ -284,6 +296,9 @@
   </si>
   <si>
     <t>2022-08-11 14:31:58</t>
+  </si>
+  <si>
+    <t>1/0.000002126</t>
   </si>
 </sst>
 </file>
@@ -656,9 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M830"/>
+  <dimension ref="A1:W830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="W59" sqref="W59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1464,7 +1481,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:23">
       <c r="A49" s="4" t="s">
         <v>63</v>
       </c>
@@ -1480,8 +1497,24 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="O49">
+        <f ca="1">OFFSET(B$35,ROW(A1)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f ca="1">OFFSET(I$41,ROW(A1)*13,0)</f>
+        <v>43168</v>
+      </c>
+      <c r="Q49">
+        <f ca="1">OFFSET(J$41,ROW(A1)*13,0)</f>
+        <v>39585</v>
+      </c>
+      <c r="R49">
+        <f ca="1">OFFSET(K$41,ROW(A1)*13,0)</f>
+        <v>39834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="4" t="s">
         <v>64</v>
       </c>
@@ -1497,8 +1530,24 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <f t="shared" ref="O50:O113" ca="1" si="0">OFFSET(B$35,ROW(A2)*13,0)</f>
+        <v>9.2230000000000008</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ref="P50:P113" ca="1" si="1">OFFSET(I$41,ROW(A2)*13,0)</f>
+        <v>43045</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50:Q113" ca="1" si="2">OFFSET(J$41,ROW(A2)*13,0)</f>
+        <v>39390</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ref="R50:R113" ca="1" si="3">OFFSET(K$41,ROW(A2)*13,0)</f>
+        <v>40023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="4" t="s">
         <v>65</v>
       </c>
@@ -1538,8 +1587,24 @@
       <c r="M51" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.225000000000001</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ca="1" si="1"/>
+        <v>42761</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" ca="1" si="2"/>
+        <v>39357</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ca="1" si="3"/>
+        <v>39572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="4" t="s">
         <v>78</v>
       </c>
@@ -1579,8 +1644,24 @@
       <c r="M52" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.219000000000001</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ca="1" si="1"/>
+        <v>42611</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ca="1" si="2"/>
+        <v>39105</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ca="1" si="3"/>
+        <v>39649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="4" t="s">
         <v>79</v>
       </c>
@@ -1620,8 +1701,24 @@
       <c r="M53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.225000000000001</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ca="1" si="1"/>
+        <v>42708</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ca="1" si="2"/>
+        <v>39033</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ca="1" si="3"/>
+        <v>39634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="4" t="s">
         <v>80</v>
       </c>
@@ -1661,8 +1758,24 @@
       <c r="M54" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54">
+        <f t="shared" ca="1" si="0"/>
+        <v>49.222999999999999</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ca="1" si="1"/>
+        <v>42126</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ca="1" si="2"/>
+        <v>38772</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ca="1" si="3"/>
+        <v>39275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="4" t="s">
         <v>81</v>
       </c>
@@ -1702,8 +1815,24 @@
       <c r="M55" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="O55">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.220999999999997</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ca="1" si="1"/>
+        <v>41961</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" ca="1" si="2"/>
+        <v>38615</v>
+      </c>
+      <c r="R55">
+        <f t="shared" ca="1" si="3"/>
+        <v>39580</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="4" t="s">
         <v>82</v>
       </c>
@@ -1743,8 +1872,24 @@
       <c r="M56" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="O56">
+        <f t="shared" ca="1" si="0"/>
+        <v>69.221999999999994</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ca="1" si="1"/>
+        <v>41590</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" ca="1" si="2"/>
+        <v>38399</v>
+      </c>
+      <c r="R56">
+        <f t="shared" ca="1" si="3"/>
+        <v>39052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="4" t="s">
         <v>83</v>
       </c>
@@ -1784,8 +1929,24 @@
       <c r="M57" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="O57">
+        <f t="shared" ca="1" si="0"/>
+        <v>79.227000000000004</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ca="1" si="1"/>
+        <v>41855</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ca="1" si="2"/>
+        <v>38113</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ca="1" si="3"/>
+        <v>38852</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="4" t="s">
         <v>84</v>
       </c>
@@ -1825,8 +1986,24 @@
       <c r="M58" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.224999999999994</v>
+      </c>
+      <c r="P58">
+        <f t="shared" ca="1" si="1"/>
+        <v>41331</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ca="1" si="2"/>
+        <v>38163</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ca="1" si="3"/>
+        <v>38761</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="4" t="s">
         <v>85</v>
       </c>
@@ -1866,8 +2043,27 @@
       <c r="M59" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="O59">
+        <f t="shared" ca="1" si="0"/>
+        <v>99.227000000000004</v>
+      </c>
+      <c r="P59">
+        <f t="shared" ca="1" si="1"/>
+        <v>40990</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ca="1" si="2"/>
+        <v>37139</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ca="1" si="3"/>
+        <v>38378</v>
+      </c>
+      <c r="W59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1879,8 +2075,24 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="O60">
+        <f t="shared" ca="1" si="0"/>
+        <v>109.233</v>
+      </c>
+      <c r="P60">
+        <f t="shared" ca="1" si="1"/>
+        <v>41209</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ca="1" si="2"/>
+        <v>37463</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ca="1" si="3"/>
+        <v>38130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
@@ -1896,8 +2108,24 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="O61">
+        <f t="shared" ca="1" si="0"/>
+        <v>119.226</v>
+      </c>
+      <c r="P61">
+        <f t="shared" ca="1" si="1"/>
+        <v>40844</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ca="1" si="2"/>
+        <v>37249</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ca="1" si="3"/>
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -1913,8 +2141,24 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="O62">
+        <f t="shared" ca="1" si="0"/>
+        <v>129.22300000000001</v>
+      </c>
+      <c r="P62">
+        <f t="shared" ca="1" si="1"/>
+        <v>40714</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ca="1" si="2"/>
+        <v>37193</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ca="1" si="3"/>
+        <v>38049</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="4" t="s">
         <v>64</v>
       </c>
@@ -1930,8 +2174,24 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="O63">
+        <f t="shared" ca="1" si="0"/>
+        <v>139.227</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ca="1" si="1"/>
+        <v>40370</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ca="1" si="2"/>
+        <v>37141</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ca="1" si="3"/>
+        <v>37635</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="4" t="s">
         <v>65</v>
       </c>
@@ -1971,8 +2231,24 @@
       <c r="M64" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="O64">
+        <f t="shared" ca="1" si="0"/>
+        <v>149.23099999999999</v>
+      </c>
+      <c r="P64">
+        <f t="shared" ca="1" si="1"/>
+        <v>40260</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ca="1" si="2"/>
+        <v>37035</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ca="1" si="3"/>
+        <v>37321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="4" t="s">
         <v>78</v>
       </c>
@@ -2012,8 +2288,24 @@
       <c r="M65" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="O65">
+        <f t="shared" ca="1" si="0"/>
+        <v>159.22900000000001</v>
+      </c>
+      <c r="P65">
+        <f t="shared" ca="1" si="1"/>
+        <v>40134</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" ca="1" si="2"/>
+        <v>36530</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ca="1" si="3"/>
+        <v>37316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="4" t="s">
         <v>79</v>
       </c>
@@ -2053,8 +2345,24 @@
       <c r="M66" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="O66">
+        <f t="shared" ca="1" si="0"/>
+        <v>169.23500000000001</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ca="1" si="1"/>
+        <v>39644</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ca="1" si="2"/>
+        <v>36447</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ca="1" si="3"/>
+        <v>37214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
@@ -2094,8 +2402,24 @@
       <c r="M67" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="O67">
+        <f t="shared" ca="1" si="0"/>
+        <v>179.22800000000001</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ca="1" si="1"/>
+        <v>39671</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ca="1" si="2"/>
+        <v>36203</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ca="1" si="3"/>
+        <v>36821</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="4" t="s">
         <v>81</v>
       </c>
@@ -2135,8 +2459,24 @@
       <c r="M68" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="O68">
+        <f t="shared" ca="1" si="0"/>
+        <v>189.239</v>
+      </c>
+      <c r="P68">
+        <f t="shared" ca="1" si="1"/>
+        <v>39471</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ca="1" si="2"/>
+        <v>36477</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ca="1" si="3"/>
+        <v>37012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="4" t="s">
         <v>82</v>
       </c>
@@ -2176,8 +2516,24 @@
       <c r="M69" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="O69">
+        <f t="shared" ca="1" si="0"/>
+        <v>199.23</v>
+      </c>
+      <c r="P69">
+        <f t="shared" ca="1" si="1"/>
+        <v>39561</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" ca="1" si="2"/>
+        <v>35780</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ca="1" si="3"/>
+        <v>36607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="4" t="s">
         <v>83</v>
       </c>
@@ -2217,8 +2573,24 @@
       <c r="M70" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="O70">
+        <f t="shared" ca="1" si="0"/>
+        <v>209.22</v>
+      </c>
+      <c r="P70">
+        <f t="shared" ca="1" si="1"/>
+        <v>39152</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ca="1" si="2"/>
+        <v>35835</v>
+      </c>
+      <c r="R70">
+        <f t="shared" ca="1" si="3"/>
+        <v>36286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="4" t="s">
         <v>84</v>
       </c>
@@ -2258,8 +2630,24 @@
       <c r="M71" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="O71">
+        <f t="shared" ca="1" si="0"/>
+        <v>219.22300000000001</v>
+      </c>
+      <c r="P71">
+        <f t="shared" ca="1" si="1"/>
+        <v>38959</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ca="1" si="2"/>
+        <v>35756</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ca="1" si="3"/>
+        <v>36277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="4" t="s">
         <v>85</v>
       </c>
@@ -2299,8 +2687,24 @@
       <c r="M72" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="O72">
+        <f t="shared" ca="1" si="0"/>
+        <v>229.22499999999999</v>
+      </c>
+      <c r="P72">
+        <f t="shared" ca="1" si="1"/>
+        <v>38591</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ca="1" si="2"/>
+        <v>35497</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ca="1" si="3"/>
+        <v>36115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2312,8 +2716,24 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="O73">
+        <f t="shared" ca="1" si="0"/>
+        <v>239.22800000000001</v>
+      </c>
+      <c r="P73">
+        <f t="shared" ca="1" si="1"/>
+        <v>38849</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ca="1" si="2"/>
+        <v>35304</v>
+      </c>
+      <c r="R73">
+        <f t="shared" ca="1" si="3"/>
+        <v>35965</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="4" t="s">
         <v>62</v>
       </c>
@@ -2329,8 +2749,24 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="O74">
+        <f t="shared" ca="1" si="0"/>
+        <v>249.232</v>
+      </c>
+      <c r="P74">
+        <f t="shared" ca="1" si="1"/>
+        <v>38131</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" ca="1" si="2"/>
+        <v>35198</v>
+      </c>
+      <c r="R74">
+        <f t="shared" ca="1" si="3"/>
+        <v>35633</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="4" t="s">
         <v>63</v>
       </c>
@@ -2346,8 +2782,24 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="O75">
+        <f t="shared" ca="1" si="0"/>
+        <v>259.221</v>
+      </c>
+      <c r="P75">
+        <f t="shared" ca="1" si="1"/>
+        <v>38135</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" ca="1" si="2"/>
+        <v>34891</v>
+      </c>
+      <c r="R75">
+        <f t="shared" ca="1" si="3"/>
+        <v>35361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="4" t="s">
         <v>64</v>
       </c>
@@ -2363,8 +2815,24 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="O76">
+        <f t="shared" ca="1" si="0"/>
+        <v>269.22300000000001</v>
+      </c>
+      <c r="P76">
+        <f t="shared" ca="1" si="1"/>
+        <v>38194</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" ca="1" si="2"/>
+        <v>34723</v>
+      </c>
+      <c r="R76">
+        <f t="shared" ca="1" si="3"/>
+        <v>35124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="4" t="s">
         <v>65</v>
       </c>
@@ -2404,8 +2872,24 @@
       <c r="M77" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="O77">
+        <f t="shared" ca="1" si="0"/>
+        <v>279.22000000000003</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ca="1" si="1"/>
+        <v>38242</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" ca="1" si="2"/>
+        <v>34818</v>
+      </c>
+      <c r="R77">
+        <f t="shared" ca="1" si="3"/>
+        <v>35098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
@@ -2445,8 +2929,24 @@
       <c r="M78" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="O78">
+        <f t="shared" ca="1" si="0"/>
+        <v>289.226</v>
+      </c>
+      <c r="P78">
+        <f t="shared" ca="1" si="1"/>
+        <v>37676</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" ca="1" si="2"/>
+        <v>34374</v>
+      </c>
+      <c r="R78">
+        <f t="shared" ca="1" si="3"/>
+        <v>34960</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
@@ -2486,8 +2986,24 @@
       <c r="M79" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="O79">
+        <f t="shared" ca="1" si="0"/>
+        <v>299.214</v>
+      </c>
+      <c r="P79">
+        <f t="shared" ca="1" si="1"/>
+        <v>37466</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" ca="1" si="2"/>
+        <v>34348</v>
+      </c>
+      <c r="R79">
+        <f t="shared" ca="1" si="3"/>
+        <v>34542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
@@ -2527,8 +3043,24 @@
       <c r="M80" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="O80">
+        <f t="shared" ca="1" si="0"/>
+        <v>309.20499999999998</v>
+      </c>
+      <c r="P80">
+        <f t="shared" ca="1" si="1"/>
+        <v>37402</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" ca="1" si="2"/>
+        <v>33929</v>
+      </c>
+      <c r="R80">
+        <f t="shared" ca="1" si="3"/>
+        <v>34550</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
@@ -2568,8 +3100,24 @@
       <c r="M81" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="O81">
+        <f t="shared" ca="1" si="0"/>
+        <v>319.22199999999998</v>
+      </c>
+      <c r="P81">
+        <f t="shared" ca="1" si="1"/>
+        <v>37253</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" ca="1" si="2"/>
+        <v>34188</v>
+      </c>
+      <c r="R81">
+        <f t="shared" ca="1" si="3"/>
+        <v>33799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
@@ -2609,8 +3157,24 @@
       <c r="M82" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="O82">
+        <f t="shared" ca="1" si="0"/>
+        <v>329.209</v>
+      </c>
+      <c r="P82">
+        <f t="shared" ca="1" si="1"/>
+        <v>37074</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" ca="1" si="2"/>
+        <v>33701</v>
+      </c>
+      <c r="R82">
+        <f t="shared" ca="1" si="3"/>
+        <v>34101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="4" t="s">
         <v>83</v>
       </c>
@@ -2650,8 +3214,24 @@
       <c r="M83" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="O83">
+        <f t="shared" ca="1" si="0"/>
+        <v>339.21</v>
+      </c>
+      <c r="P83">
+        <f t="shared" ca="1" si="1"/>
+        <v>37077</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" ca="1" si="2"/>
+        <v>33631</v>
+      </c>
+      <c r="R83">
+        <f t="shared" ca="1" si="3"/>
+        <v>33756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
@@ -2691,8 +3271,24 @@
       <c r="M84" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="O84">
+        <f t="shared" ca="1" si="0"/>
+        <v>349.21100000000001</v>
+      </c>
+      <c r="P84">
+        <f t="shared" ca="1" si="1"/>
+        <v>36716</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" ca="1" si="2"/>
+        <v>33631</v>
+      </c>
+      <c r="R84">
+        <f t="shared" ca="1" si="3"/>
+        <v>34123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -2732,8 +3328,24 @@
       <c r="M85" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="O85">
+        <f t="shared" ca="1" si="0"/>
+        <v>359.214</v>
+      </c>
+      <c r="P85">
+        <f t="shared" ca="1" si="1"/>
+        <v>36736</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" ca="1" si="2"/>
+        <v>33473</v>
+      </c>
+      <c r="R85">
+        <f t="shared" ca="1" si="3"/>
+        <v>33901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2745,8 +3357,24 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="O86">
+        <f t="shared" ca="1" si="0"/>
+        <v>369.21199999999999</v>
+      </c>
+      <c r="P86">
+        <f t="shared" ca="1" si="1"/>
+        <v>36529</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" ca="1" si="2"/>
+        <v>33286</v>
+      </c>
+      <c r="R86">
+        <f t="shared" ca="1" si="3"/>
+        <v>33728</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="4" t="s">
         <v>62</v>
       </c>
@@ -2762,8 +3390,24 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="O87">
+        <f t="shared" ca="1" si="0"/>
+        <v>379.21100000000001</v>
+      </c>
+      <c r="P87">
+        <f t="shared" ca="1" si="1"/>
+        <v>36190</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" ca="1" si="2"/>
+        <v>33439</v>
+      </c>
+      <c r="R87">
+        <f t="shared" ca="1" si="3"/>
+        <v>33553</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="4" t="s">
         <v>63</v>
       </c>
@@ -2779,8 +3423,24 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="O88">
+        <f t="shared" ca="1" si="0"/>
+        <v>389.209</v>
+      </c>
+      <c r="P88">
+        <f t="shared" ca="1" si="1"/>
+        <v>36242</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" ca="1" si="2"/>
+        <v>33218</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ca="1" si="3"/>
+        <v>33616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="4" t="s">
         <v>64</v>
       </c>
@@ -2796,8 +3456,24 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="O89">
+        <f t="shared" ca="1" si="0"/>
+        <v>399.20299999999997</v>
+      </c>
+      <c r="P89">
+        <f t="shared" ca="1" si="1"/>
+        <v>35956</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" ca="1" si="2"/>
+        <v>32856</v>
+      </c>
+      <c r="R89">
+        <f t="shared" ca="1" si="3"/>
+        <v>33588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="4" t="s">
         <v>65</v>
       </c>
@@ -2837,8 +3513,24 @@
       <c r="M90" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="O90">
+        <f t="shared" ca="1" si="0"/>
+        <v>409.21</v>
+      </c>
+      <c r="P90">
+        <f t="shared" ca="1" si="1"/>
+        <v>35907</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ca="1" si="2"/>
+        <v>32761</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ca="1" si="3"/>
+        <v>33080</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="4" t="s">
         <v>78</v>
       </c>
@@ -2878,8 +3570,24 @@
       <c r="M91" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="O91">
+        <f t="shared" ca="1" si="0"/>
+        <v>419.20800000000003</v>
+      </c>
+      <c r="P91">
+        <f t="shared" ca="1" si="1"/>
+        <v>35725</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" ca="1" si="2"/>
+        <v>32774</v>
+      </c>
+      <c r="R91">
+        <f t="shared" ca="1" si="3"/>
+        <v>33374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="4" t="s">
         <v>79</v>
       </c>
@@ -2919,8 +3627,24 @@
       <c r="M92" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="O92">
+        <f t="shared" ca="1" si="0"/>
+        <v>429.20699999999999</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ca="1" si="1"/>
+        <v>35706</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" ca="1" si="2"/>
+        <v>32839</v>
+      </c>
+      <c r="R92">
+        <f t="shared" ca="1" si="3"/>
+        <v>32908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="4" t="s">
         <v>80</v>
       </c>
@@ -2960,8 +3684,24 @@
       <c r="M93" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="O93">
+        <f t="shared" ca="1" si="0"/>
+        <v>439.21100000000001</v>
+      </c>
+      <c r="P93">
+        <f t="shared" ca="1" si="1"/>
+        <v>35645</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" ca="1" si="2"/>
+        <v>32461</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ca="1" si="3"/>
+        <v>33107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="4" t="s">
         <v>81</v>
       </c>
@@ -3001,8 +3741,24 @@
       <c r="M94" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="O94">
+        <f t="shared" ca="1" si="0"/>
+        <v>449.20400000000001</v>
+      </c>
+      <c r="P94">
+        <f t="shared" ca="1" si="1"/>
+        <v>35451</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" ca="1" si="2"/>
+        <v>32424</v>
+      </c>
+      <c r="R94">
+        <f t="shared" ca="1" si="3"/>
+        <v>32986</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="4" t="s">
         <v>82</v>
       </c>
@@ -3042,8 +3798,24 @@
       <c r="M95" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="O95">
+        <f t="shared" ca="1" si="0"/>
+        <v>459.21899999999999</v>
+      </c>
+      <c r="P95">
+        <f t="shared" ca="1" si="1"/>
+        <v>35848</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ca="1" si="2"/>
+        <v>32343</v>
+      </c>
+      <c r="R95">
+        <f t="shared" ca="1" si="3"/>
+        <v>32786</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="4" t="s">
         <v>83</v>
       </c>
@@ -3083,8 +3855,24 @@
       <c r="M96" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="O96">
+        <f t="shared" ca="1" si="0"/>
+        <v>469.20699999999999</v>
+      </c>
+      <c r="P96">
+        <f t="shared" ca="1" si="1"/>
+        <v>35504</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" ca="1" si="2"/>
+        <v>32134</v>
+      </c>
+      <c r="R96">
+        <f t="shared" ca="1" si="3"/>
+        <v>32579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="4" t="s">
         <v>84</v>
       </c>
@@ -3124,8 +3912,24 @@
       <c r="M97" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="O97">
+        <f t="shared" ca="1" si="0"/>
+        <v>479.20600000000002</v>
+      </c>
+      <c r="P97">
+        <f t="shared" ca="1" si="1"/>
+        <v>34905</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" ca="1" si="2"/>
+        <v>31962</v>
+      </c>
+      <c r="R97">
+        <f t="shared" ca="1" si="3"/>
+        <v>32613</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="4" t="s">
         <v>85</v>
       </c>
@@ -3165,8 +3969,24 @@
       <c r="M98" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="O98">
+        <f t="shared" ca="1" si="0"/>
+        <v>489.20499999999998</v>
+      </c>
+      <c r="P98">
+        <f t="shared" ca="1" si="1"/>
+        <v>34742</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" ca="1" si="2"/>
+        <v>31815</v>
+      </c>
+      <c r="R98">
+        <f t="shared" ca="1" si="3"/>
+        <v>32437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3178,8 +3998,24 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="O99">
+        <f t="shared" ca="1" si="0"/>
+        <v>499.21600000000001</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ca="1" si="1"/>
+        <v>34627</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" ca="1" si="2"/>
+        <v>31924</v>
+      </c>
+      <c r="R99">
+        <f t="shared" ca="1" si="3"/>
+        <v>32275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="4" t="s">
         <v>62</v>
       </c>
@@ -3195,8 +4031,24 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="O100">
+        <f t="shared" ca="1" si="0"/>
+        <v>509.20499999999998</v>
+      </c>
+      <c r="P100">
+        <f t="shared" ca="1" si="1"/>
+        <v>34483</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" ca="1" si="2"/>
+        <v>31622</v>
+      </c>
+      <c r="R100">
+        <f t="shared" ca="1" si="3"/>
+        <v>32249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="4" t="s">
         <v>63</v>
       </c>
@@ -3212,8 +4064,24 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="O101">
+        <f t="shared" ca="1" si="0"/>
+        <v>519.21299999999997</v>
+      </c>
+      <c r="P101">
+        <f t="shared" ca="1" si="1"/>
+        <v>34476</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" ca="1" si="2"/>
+        <v>31960</v>
+      </c>
+      <c r="R101">
+        <f t="shared" ca="1" si="3"/>
+        <v>31862</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="4" t="s">
         <v>64</v>
       </c>
@@ -3229,8 +4097,24 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="O102">
+        <f t="shared" ca="1" si="0"/>
+        <v>529.21400000000006</v>
+      </c>
+      <c r="P102">
+        <f t="shared" ca="1" si="1"/>
+        <v>34413</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" ca="1" si="2"/>
+        <v>31348</v>
+      </c>
+      <c r="R102">
+        <f t="shared" ca="1" si="3"/>
+        <v>32004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="4" t="s">
         <v>65</v>
       </c>
@@ -3270,8 +4154,24 @@
       <c r="M103" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="O103">
+        <f t="shared" ca="1" si="0"/>
+        <v>539.20299999999997</v>
+      </c>
+      <c r="P103">
+        <f t="shared" ca="1" si="1"/>
+        <v>34051</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" ca="1" si="2"/>
+        <v>31476</v>
+      </c>
+      <c r="R103">
+        <f t="shared" ca="1" si="3"/>
+        <v>31639</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="4" t="s">
         <v>78</v>
       </c>
@@ -3311,8 +4211,24 @@
       <c r="M104" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="O104">
+        <f t="shared" ca="1" si="0"/>
+        <v>549.21299999999997</v>
+      </c>
+      <c r="P104">
+        <f t="shared" ca="1" si="1"/>
+        <v>33795</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" ca="1" si="2"/>
+        <v>31144</v>
+      </c>
+      <c r="R104">
+        <f t="shared" ca="1" si="3"/>
+        <v>31282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="4" t="s">
         <v>79</v>
       </c>
@@ -3352,8 +4268,24 @@
       <c r="M105" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="O105">
+        <f t="shared" ca="1" si="0"/>
+        <v>559.21299999999997</v>
+      </c>
+      <c r="P105">
+        <f t="shared" ca="1" si="1"/>
+        <v>33695</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" ca="1" si="2"/>
+        <v>31136</v>
+      </c>
+      <c r="R105">
+        <f t="shared" ca="1" si="3"/>
+        <v>31407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="4" t="s">
         <v>80</v>
       </c>
@@ -3393,8 +4325,24 @@
       <c r="M106" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="O106">
+        <f t="shared" ca="1" si="0"/>
+        <v>569.21400000000006</v>
+      </c>
+      <c r="P106">
+        <f t="shared" ca="1" si="1"/>
+        <v>33754</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" ca="1" si="2"/>
+        <v>30964</v>
+      </c>
+      <c r="R106">
+        <f t="shared" ca="1" si="3"/>
+        <v>31016</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="4" t="s">
         <v>81</v>
       </c>
@@ -3434,8 +4382,24 @@
       <c r="M107" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="O107">
+        <f t="shared" ca="1" si="0"/>
+        <v>579.21400000000006</v>
+      </c>
+      <c r="P107">
+        <f t="shared" ca="1" si="1"/>
+        <v>33755</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" ca="1" si="2"/>
+        <v>30816</v>
+      </c>
+      <c r="R107">
+        <f t="shared" ca="1" si="3"/>
+        <v>31159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="4" t="s">
         <v>82</v>
       </c>
@@ -3475,8 +4439,24 @@
       <c r="M108" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="O108">
+        <f t="shared" ca="1" si="0"/>
+        <v>589.22199999999998</v>
+      </c>
+      <c r="P108">
+        <f t="shared" ca="1" si="1"/>
+        <v>33361</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" ca="1" si="2"/>
+        <v>30837</v>
+      </c>
+      <c r="R108">
+        <f t="shared" ca="1" si="3"/>
+        <v>31179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="4" t="s">
         <v>83</v>
       </c>
@@ -3516,8 +4496,24 @@
       <c r="M109" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="O109">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="4" t="s">
         <v>84</v>
       </c>
@@ -3557,8 +4553,24 @@
       <c r="M110" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="O110">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="4" t="s">
         <v>85</v>
       </c>
@@ -3598,8 +4610,24 @@
       <c r="M111" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="O111">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3611,8 +4639,24 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="O112">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="4" t="s">
         <v>62</v>
       </c>
@@ -3628,8 +4672,24 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="O113">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="4" t="s">
         <v>63</v>
       </c>
@@ -3645,8 +4705,24 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="O114">
+        <f t="shared" ref="O114:O177" ca="1" si="4">OFFSET(B$35,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <f t="shared" ref="P114:P177" ca="1" si="5">OFFSET(I$41,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" ref="Q114:Q177" ca="1" si="6">OFFSET(J$41,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <f t="shared" ref="R114:R177" ca="1" si="7">OFFSET(K$41,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="4" t="s">
         <v>64</v>
       </c>
@@ -3662,8 +4738,24 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="O115">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="4" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +4795,24 @@
       <c r="M116" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="O116">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="4" t="s">
         <v>78</v>
       </c>
@@ -3744,8 +4852,24 @@
       <c r="M117" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="O117">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="4" t="s">
         <v>79</v>
       </c>
@@ -3785,8 +4909,24 @@
       <c r="M118" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="O118">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="4" t="s">
         <v>80</v>
       </c>
@@ -3826,8 +4966,24 @@
       <c r="M119" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="O119">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="4" t="s">
         <v>81</v>
       </c>
@@ -3867,8 +5023,24 @@
       <c r="M120" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="O120">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="4" t="s">
         <v>82</v>
       </c>
@@ -3908,8 +5080,24 @@
       <c r="M121" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="O121">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="4" t="s">
         <v>83</v>
       </c>
@@ -3949,8 +5137,24 @@
       <c r="M122" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="O122">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="4" t="s">
         <v>84</v>
       </c>
@@ -3990,8 +5194,24 @@
       <c r="M123" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="O123">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="4" t="s">
         <v>85</v>
       </c>
@@ -4031,8 +5251,24 @@
       <c r="M124" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="O124">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4044,8 +5280,24 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="O125">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="4" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +5313,24 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="O126">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="4" t="s">
         <v>63</v>
       </c>
@@ -4078,8 +5346,24 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="O127">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="4" t="s">
         <v>64</v>
       </c>
@@ -4095,8 +5379,24 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="O128">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="4" t="s">
         <v>65</v>
       </c>
@@ -4136,8 +5436,24 @@
       <c r="M129" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="O129">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="4" t="s">
         <v>78</v>
       </c>
@@ -4177,8 +5493,24 @@
       <c r="M130" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="O130">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="4" t="s">
         <v>79</v>
       </c>
@@ -4218,8 +5550,24 @@
       <c r="M131" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="O131">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="4" t="s">
         <v>80</v>
       </c>
@@ -4259,8 +5607,24 @@
       <c r="M132" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="O132">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="4" t="s">
         <v>81</v>
       </c>
@@ -4300,8 +5664,24 @@
       <c r="M133" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="O133">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="4" t="s">
         <v>82</v>
       </c>
@@ -4341,8 +5721,24 @@
       <c r="M134" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="O134">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="4" t="s">
         <v>83</v>
       </c>
@@ -4382,8 +5778,24 @@
       <c r="M135" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="O135">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="4" t="s">
         <v>84</v>
       </c>
@@ -4423,8 +5835,24 @@
       <c r="M136" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="O136">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="4" t="s">
         <v>85</v>
       </c>
@@ -4464,8 +5892,24 @@
       <c r="M137" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="O137">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4477,8 +5921,24 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="O138">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="4" t="s">
         <v>62</v>
       </c>
@@ -4494,8 +5954,24 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="O139">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="4" t="s">
         <v>63</v>
       </c>
@@ -4511,8 +5987,24 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="O140">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="4" t="s">
         <v>64</v>
       </c>
@@ -4528,8 +6020,24 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="O141">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="4" t="s">
         <v>65</v>
       </c>
@@ -4569,8 +6077,24 @@
       <c r="M142" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="O142">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="4" t="s">
         <v>78</v>
       </c>
@@ -4610,8 +6134,24 @@
       <c r="M143" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="O143">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="4" t="s">
         <v>79</v>
       </c>
@@ -4651,8 +6191,24 @@
       <c r="M144" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="O144">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="4" t="s">
         <v>80</v>
       </c>
@@ -4692,8 +6248,24 @@
       <c r="M145" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="O145">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="4" t="s">
         <v>81</v>
       </c>
@@ -4733,8 +6305,24 @@
       <c r="M146" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="O146">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="4" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +6362,24 @@
       <c r="M147" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="O147">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="4" t="s">
         <v>83</v>
       </c>
@@ -4815,8 +6419,24 @@
       <c r="M148" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="O148">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
         <v>84</v>
       </c>
@@ -4856,8 +6476,24 @@
       <c r="M149" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="O149">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="4" t="s">
         <v>85</v>
       </c>
@@ -4897,8 +6533,24 @@
       <c r="M150" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="O150">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4910,8 +6562,24 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="O151">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="4" t="s">
         <v>62</v>
       </c>
@@ -4927,8 +6595,24 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="O152">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" s="4" t="s">
         <v>63</v>
       </c>
@@ -4944,8 +6628,24 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="O153">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="4" t="s">
         <v>64</v>
       </c>
@@ -4961,8 +6661,24 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="O154">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" s="4" t="s">
         <v>65</v>
       </c>
@@ -5002,8 +6718,24 @@
       <c r="M155" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="O155">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" s="4" t="s">
         <v>78</v>
       </c>
@@ -5043,8 +6775,24 @@
       <c r="M156" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="O156">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" s="4" t="s">
         <v>79</v>
       </c>
@@ -5084,8 +6832,24 @@
       <c r="M157" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="O157">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="4" t="s">
         <v>80</v>
       </c>
@@ -5125,8 +6889,24 @@
       <c r="M158" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="O158">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" s="4" t="s">
         <v>81</v>
       </c>
@@ -5166,8 +6946,24 @@
       <c r="M159" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="O159">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" s="4" t="s">
         <v>82</v>
       </c>
@@ -5207,8 +7003,24 @@
       <c r="M160" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="O160">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" s="4" t="s">
         <v>83</v>
       </c>
@@ -5248,8 +7060,24 @@
       <c r="M161" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="O161">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" s="4" t="s">
         <v>84</v>
       </c>
@@ -5289,8 +7117,24 @@
       <c r="M162" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="O162">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="4" t="s">
         <v>85</v>
       </c>
@@ -5330,8 +7174,24 @@
       <c r="M163" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="O163">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5343,8 +7203,24 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="O164">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" s="4" t="s">
         <v>62</v>
       </c>
@@ -5360,8 +7236,24 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="O165">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" s="4" t="s">
         <v>63</v>
       </c>
@@ -5377,8 +7269,24 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="O166">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" s="4" t="s">
         <v>64</v>
       </c>
@@ -5394,8 +7302,24 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="O167">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" s="4" t="s">
         <v>65</v>
       </c>
@@ -5435,8 +7359,24 @@
       <c r="M168" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="O168">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" s="4" t="s">
         <v>78</v>
       </c>
@@ -5476,8 +7416,24 @@
       <c r="M169" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="O169">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" s="4" t="s">
         <v>79</v>
       </c>
@@ -5517,8 +7473,24 @@
       <c r="M170" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="O170">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" s="4" t="s">
         <v>80</v>
       </c>
@@ -5558,8 +7530,24 @@
       <c r="M171" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="O171">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" s="4" t="s">
         <v>81</v>
       </c>
@@ -5599,8 +7587,24 @@
       <c r="M172" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="O172">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" s="4" t="s">
         <v>82</v>
       </c>
@@ -5640,8 +7644,24 @@
       <c r="M173" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="O173">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" s="4" t="s">
         <v>83</v>
       </c>
@@ -5681,8 +7701,24 @@
       <c r="M174" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="O174">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" s="4" t="s">
         <v>84</v>
       </c>
@@ -5722,8 +7758,24 @@
       <c r="M175" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="O175">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
         <v>85</v>
       </c>
@@ -5763,8 +7815,24 @@
       <c r="M176" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="O176">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5776,8 +7844,24 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="O177">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" s="4" t="s">
         <v>62</v>
       </c>
@@ -5793,8 +7877,24 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="O178">
+        <f t="shared" ref="O178:O208" ca="1" si="8">OFFSET(B$35,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <f t="shared" ref="P178:P208" ca="1" si="9">OFFSET(I$41,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" ref="Q178:Q208" ca="1" si="10">OFFSET(J$41,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <f t="shared" ref="R178:R208" ca="1" si="11">OFFSET(K$41,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" s="4" t="s">
         <v>63</v>
       </c>
@@ -5810,8 +7910,24 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="O179">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" s="4" t="s">
         <v>64</v>
       </c>
@@ -5827,8 +7943,24 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="O180">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" s="4" t="s">
         <v>65</v>
       </c>
@@ -5868,8 +8000,24 @@
       <c r="M181" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="O181">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" s="4" t="s">
         <v>78</v>
       </c>
@@ -5909,8 +8057,24 @@
       <c r="M182" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="O182">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" s="4" t="s">
         <v>79</v>
       </c>
@@ -5950,8 +8114,24 @@
       <c r="M183" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="O183">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184" s="4" t="s">
         <v>80</v>
       </c>
@@ -5991,8 +8171,24 @@
       <c r="M184" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="O184">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185" s="4" t="s">
         <v>81</v>
       </c>
@@ -6032,8 +8228,24 @@
       <c r="M185" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="O185">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186" s="4" t="s">
         <v>82</v>
       </c>
@@ -6073,8 +8285,24 @@
       <c r="M186" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="O186">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
       <c r="A187" s="4" t="s">
         <v>83</v>
       </c>
@@ -6114,8 +8342,24 @@
       <c r="M187" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="O187">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
       <c r="A188" s="4" t="s">
         <v>84</v>
       </c>
@@ -6155,8 +8399,24 @@
       <c r="M188" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="O188">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189" s="4" t="s">
         <v>85</v>
       </c>
@@ -6196,8 +8456,24 @@
       <c r="M189" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="O189">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6209,8 +8485,24 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="O190">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
       <c r="A191" s="4" t="s">
         <v>62</v>
       </c>
@@ -6226,8 +8518,24 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="O191">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
       <c r="A192" s="4" t="s">
         <v>63</v>
       </c>
@@ -6243,8 +8551,24 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="O192">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
       <c r="A193" s="4" t="s">
         <v>64</v>
       </c>
@@ -6260,8 +8584,24 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="O193">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" s="4" t="s">
         <v>65</v>
       </c>
@@ -6301,8 +8641,24 @@
       <c r="M194" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="O194">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195" s="4" t="s">
         <v>78</v>
       </c>
@@ -6342,8 +8698,24 @@
       <c r="M195" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="O195">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196" s="4" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +8755,24 @@
       <c r="M196" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="O196">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197" s="4" t="s">
         <v>80</v>
       </c>
@@ -6424,8 +8812,24 @@
       <c r="M197" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="O197">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198" s="4" t="s">
         <v>81</v>
       </c>
@@ -6465,8 +8869,24 @@
       <c r="M198" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="O198">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199" s="4" t="s">
         <v>82</v>
       </c>
@@ -6506,8 +8926,24 @@
       <c r="M199" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="O199">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200" s="4" t="s">
         <v>83</v>
       </c>
@@ -6547,8 +8983,24 @@
       <c r="M200" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="O200">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201" s="4" t="s">
         <v>84</v>
       </c>
@@ -6588,8 +9040,24 @@
       <c r="M201" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="O201">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" s="4" t="s">
         <v>85</v>
       </c>
@@ -6629,8 +9097,24 @@
       <c r="M202" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="O202">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6642,8 +9126,24 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="O203">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204" s="4" t="s">
         <v>62</v>
       </c>
@@ -6659,8 +9159,24 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="O204">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205" s="4" t="s">
         <v>63</v>
       </c>
@@ -6676,8 +9192,24 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="O205">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" s="4" t="s">
         <v>64</v>
       </c>
@@ -6693,8 +9225,24 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="O206">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207" s="4" t="s">
         <v>65</v>
       </c>
@@ -6734,8 +9282,24 @@
       <c r="M207" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="O207">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208" s="4" t="s">
         <v>78</v>
       </c>
@@ -6774,6 +9338,22 @@
       </c>
       <c r="M208" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="O208">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:13">
